--- a/a.xlsx
+++ b/a.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>name</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>nam</t>
+  </si>
+  <si>
+    <t>minh</t>
   </si>
 </sst>
 </file>
@@ -348,10 +351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -372,10 +375,21 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/a.xlsx
+++ b/a.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>name</t>
   </si>
@@ -34,6 +34,15 @@
   </si>
   <si>
     <t>minh</t>
+  </si>
+  <si>
+    <t>linh</t>
+  </si>
+  <si>
+    <t>tuan</t>
+  </si>
+  <si>
+    <t>dai</t>
   </si>
 </sst>
 </file>
@@ -351,10 +360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -392,6 +401,39 @@
         <v>10</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>18</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
